--- a/Doc/ExcelConfig/Datas/道具/ItemPrizePoolConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/道具/ItemPrizePoolConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>##</t>
   </si>
@@ -91,6 +91,162 @@
   <si>
     <t>是否启用</t>
   </si>
+  <si>
+    <t>亚巴顿经验</t>
+  </si>
+  <si>
+    <t>孽主经验</t>
+  </si>
+  <si>
+    <t>炼金经验</t>
+  </si>
+  <si>
+    <t>远古冰魄经验</t>
+  </si>
+  <si>
+    <t>敌法师经验</t>
+  </si>
+  <si>
+    <t>天穹守望者经验</t>
+  </si>
+  <si>
+    <t>斧王经验</t>
+  </si>
+  <si>
+    <t>祸乱之源经验</t>
+  </si>
+  <si>
+    <t>蝙蝠骑士经验</t>
+  </si>
+  <si>
+    <t>兽王经验</t>
+  </si>
+  <si>
+    <t>血魔经验</t>
+  </si>
+  <si>
+    <t>赏金猎人经验</t>
+  </si>
+  <si>
+    <t>熊猫酒仙经验</t>
+  </si>
+  <si>
+    <t>刚被兽经验</t>
+  </si>
+  <si>
+    <t>蜘蛛经验</t>
+  </si>
+  <si>
+    <t>半人马战行者经验</t>
+  </si>
+  <si>
+    <t>混沌骑士经验</t>
+  </si>
+  <si>
+    <t>陈经验</t>
+  </si>
+  <si>
+    <t>克林克兹经验</t>
+  </si>
+  <si>
+    <t>水晶室女经验</t>
+  </si>
+  <si>
+    <t>黑暗贤者经验</t>
+  </si>
+  <si>
+    <t>邪影芳灵经验</t>
+  </si>
+  <si>
+    <t>破晓辰星经验</t>
+  </si>
+  <si>
+    <t>戴泽经验</t>
+  </si>
+  <si>
+    <t>死亡先知经验</t>
+  </si>
+  <si>
+    <t>干扰者经验</t>
+  </si>
+  <si>
+    <t>末日经验</t>
+  </si>
+  <si>
+    <t>龙骑士经验</t>
+  </si>
+  <si>
+    <t>卓尔游侠经验</t>
+  </si>
+  <si>
+    <t>大地之灵经验</t>
+  </si>
+  <si>
+    <t>撼地者经验</t>
+  </si>
+  <si>
+    <t>上古巨神经验</t>
+  </si>
+  <si>
+    <t>灰烬之灵经验</t>
+  </si>
+  <si>
+    <t>魅惑魔女经验</t>
+  </si>
+  <si>
+    <t>谜团经验</t>
+  </si>
+  <si>
+    <t>JB脸经验</t>
+  </si>
+  <si>
+    <t>先知经验</t>
+  </si>
+  <si>
+    <t>天涯墨客经验</t>
+  </si>
+  <si>
+    <t>矮人直升机经验</t>
+  </si>
+  <si>
+    <t>小松鼠经验</t>
+  </si>
+  <si>
+    <t>神灵武士经验</t>
+  </si>
+  <si>
+    <t>祈求着经验</t>
+  </si>
+  <si>
+    <t>双头龙经验</t>
+  </si>
+  <si>
+    <t>主宰经验</t>
+  </si>
+  <si>
+    <t>光法经验</t>
+  </si>
+  <si>
+    <t>船长经验</t>
+  </si>
+  <si>
+    <t>军团经验</t>
+  </si>
+  <si>
+    <t>拉希克经验</t>
+  </si>
+  <si>
+    <t>巫妖经验</t>
+  </si>
+  <si>
+    <t>小狗经验</t>
+  </si>
+  <si>
+    <t>莉娜经验</t>
+  </si>
+  <si>
+    <t>莱恩经验</t>
+  </si>
 </sst>
 </file>
 
@@ -102,7 +258,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +276,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -561,10 +724,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,7 +736,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -582,25 +745,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,98 +772,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
@@ -733,6 +896,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1057,10 +1223,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1069,7 +1235,7 @@
     <col min="2" max="2" width="6.58333333333333" customWidth="1"/>
     <col min="3" max="3" width="5.08333333333333" customWidth="1"/>
     <col min="4" max="4" width="11.9166666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="18.9166666666667" customWidth="1"/>
     <col min="6" max="6" width="8.91666666666667" customWidth="1"/>
     <col min="7" max="7" width="10.25" customWidth="1"/>
     <col min="8" max="8" width="8.75" customWidth="1"/>
@@ -1153,16 +1319,16 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" ht="15.5" spans="2:8">
       <c r="B5" s="11">
         <v>10001</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="12">
-        <v>10001</v>
-      </c>
-      <c r="E5">
-        <v>111</v>
+        <v>11001</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1174,13 +1340,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
-      <c r="B6" s="13"/>
-      <c r="D6" s="12">
-        <v>10002</v>
-      </c>
-      <c r="E6">
-        <v>111</v>
+    <row r="6" ht="15.5" spans="2:8">
+      <c r="B6" s="14"/>
+      <c r="D6" s="11">
+        <v>11002</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -1192,13 +1358,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
-      <c r="B7" s="13"/>
+    <row r="7" ht="15.5" spans="2:8">
+      <c r="B7" s="14"/>
       <c r="D7" s="12">
-        <v>10003</v>
-      </c>
-      <c r="E7">
-        <v>111</v>
+        <v>11003</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -1210,13 +1376,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
-      <c r="B8" s="13"/>
-      <c r="D8" s="12">
-        <v>10004</v>
-      </c>
-      <c r="E8">
-        <v>111</v>
+    <row r="8" ht="15.5" spans="2:8">
+      <c r="B8" s="14"/>
+      <c r="D8" s="11">
+        <v>11004</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -1228,13 +1394,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="13"/>
+    <row r="9" ht="15.5" spans="2:8">
+      <c r="B9" s="14"/>
       <c r="D9" s="12">
-        <v>10005</v>
-      </c>
-      <c r="E9">
-        <v>111</v>
+        <v>11005</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -1246,13 +1412,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
-      <c r="B10" s="13"/>
-      <c r="D10" s="12">
-        <v>10006</v>
-      </c>
-      <c r="E10">
-        <v>111</v>
+    <row r="10" ht="15.5" spans="2:8">
+      <c r="B10" s="14"/>
+      <c r="D10" s="11">
+        <v>11006</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>24</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -1264,13 +1430,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
-      <c r="B11" s="13"/>
+    <row r="11" ht="15.5" spans="2:8">
+      <c r="B11" s="14"/>
       <c r="D11" s="12">
-        <v>10007</v>
-      </c>
-      <c r="E11">
-        <v>111</v>
+        <v>11007</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>25</v>
       </c>
       <c r="F11" s="3">
         <v>1</v>
@@ -1282,13 +1448,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
-      <c r="B12" s="13"/>
-      <c r="D12" s="12">
-        <v>10008</v>
-      </c>
-      <c r="E12">
-        <v>111</v>
+    <row r="12" ht="15.5" spans="2:8">
+      <c r="B12" s="14"/>
+      <c r="D12" s="11">
+        <v>11008</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -1300,13 +1466,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
-      <c r="B13" s="13"/>
+    <row r="13" ht="15.5" spans="2:8">
+      <c r="B13" s="14"/>
       <c r="D13" s="12">
-        <v>10009</v>
-      </c>
-      <c r="E13">
-        <v>111</v>
+        <v>11009</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1318,13 +1484,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="13"/>
-      <c r="D14" s="12">
-        <v>10010</v>
-      </c>
-      <c r="E14">
-        <v>111</v>
+    <row r="14" ht="15.5" spans="2:8">
+      <c r="B14" s="14"/>
+      <c r="D14" s="11">
+        <v>11010</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -1336,13 +1502,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
-      <c r="B15" s="13"/>
+    <row r="15" ht="15.5" spans="2:8">
+      <c r="B15" s="14"/>
       <c r="D15" s="12">
-        <v>10011</v>
-      </c>
-      <c r="E15">
-        <v>111</v>
+        <v>11011</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -1354,13 +1520,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:8">
-      <c r="B16" s="13"/>
-      <c r="D16" s="12">
-        <v>10012</v>
-      </c>
-      <c r="E16">
-        <v>111</v>
+    <row r="16" ht="15.5" spans="2:8">
+      <c r="B16" s="14"/>
+      <c r="D16" s="11">
+        <v>11012</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1372,13 +1538,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="13"/>
+    <row r="17" ht="15.5" spans="2:8">
+      <c r="B17" s="14"/>
       <c r="D17" s="12">
-        <v>10013</v>
-      </c>
-      <c r="E17">
-        <v>111</v>
+        <v>11013</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
@@ -1390,13 +1556,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="13"/>
-      <c r="D18" s="12">
-        <v>10014</v>
-      </c>
-      <c r="E18">
-        <v>111</v>
+    <row r="18" ht="15.5" spans="2:8">
+      <c r="B18" s="14"/>
+      <c r="D18" s="11">
+        <v>11014</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -1408,13 +1574,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
-      <c r="B19" s="13"/>
+    <row r="19" ht="15.5" spans="2:8">
+      <c r="B19" s="14"/>
       <c r="D19" s="12">
-        <v>10015</v>
-      </c>
-      <c r="E19">
-        <v>111</v>
+        <v>11015</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1426,13 +1592,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="13"/>
-      <c r="D20" s="12">
-        <v>10016</v>
-      </c>
-      <c r="E20">
-        <v>111</v>
+    <row r="20" ht="15.5" spans="2:8">
+      <c r="B20" s="14"/>
+      <c r="D20" s="11">
+        <v>11016</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1444,15 +1610,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" ht="15.5" spans="2:8">
       <c r="B21" s="11">
         <v>10002</v>
       </c>
       <c r="D21" s="12">
-        <v>10017</v>
-      </c>
-      <c r="E21">
-        <v>111</v>
+        <v>11017</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1464,13 +1630,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="13"/>
-      <c r="D22" s="12">
-        <v>10018</v>
-      </c>
-      <c r="E22">
-        <v>111</v>
+    <row r="22" ht="15.5" spans="2:8">
+      <c r="B22" s="14"/>
+      <c r="D22" s="11">
+        <v>11018</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -1482,13 +1648,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="13"/>
+    <row r="23" ht="15.5" spans="2:8">
+      <c r="B23" s="14"/>
       <c r="D23" s="12">
-        <v>10019</v>
-      </c>
-      <c r="E23">
-        <v>111</v>
+        <v>11019</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
@@ -1500,13 +1666,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
-      <c r="B24" s="13"/>
-      <c r="D24" s="12">
-        <v>10020</v>
-      </c>
-      <c r="E24">
-        <v>111</v>
+    <row r="24" ht="15.5" spans="2:8">
+      <c r="B24" s="14"/>
+      <c r="D24" s="11">
+        <v>11020</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>38</v>
       </c>
       <c r="F24" s="3">
         <v>1</v>
@@ -1518,13 +1684,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
-      <c r="B25" s="13"/>
+    <row r="25" ht="15.5" spans="2:8">
+      <c r="B25" s="14"/>
       <c r="D25" s="12">
-        <v>10021</v>
-      </c>
-      <c r="E25">
-        <v>111</v>
+        <v>11021</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -1536,13 +1702,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
-      <c r="B26" s="13"/>
-      <c r="D26" s="12">
-        <v>10022</v>
-      </c>
-      <c r="E26">
-        <v>111</v>
+    <row r="26" ht="15.5" spans="2:8">
+      <c r="B26" s="14"/>
+      <c r="D26" s="11">
+        <v>11022</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -1554,13 +1720,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
-      <c r="B27" s="13"/>
+    <row r="27" ht="15.5" spans="2:8">
+      <c r="B27" s="14"/>
       <c r="D27" s="12">
-        <v>10023</v>
-      </c>
-      <c r="E27">
-        <v>111</v>
+        <v>11023</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -1572,13 +1738,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="13"/>
-      <c r="D28" s="12">
-        <v>10024</v>
-      </c>
-      <c r="E28">
-        <v>111</v>
+    <row r="28" ht="15.5" spans="2:8">
+      <c r="B28" s="14"/>
+      <c r="D28" s="11">
+        <v>11024</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -1590,13 +1756,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
-      <c r="B29" s="13"/>
+    <row r="29" ht="15.5" spans="2:8">
+      <c r="B29" s="14"/>
       <c r="D29" s="12">
-        <v>10025</v>
-      </c>
-      <c r="E29">
-        <v>111</v>
+        <v>11025</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -1608,13 +1774,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="13"/>
-      <c r="D30" s="12">
-        <v>10026</v>
-      </c>
-      <c r="E30">
-        <v>111</v>
+    <row r="30" ht="15.5" spans="2:8">
+      <c r="B30" s="14"/>
+      <c r="D30" s="11">
+        <v>11026</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -1626,13 +1792,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="13"/>
+    <row r="31" ht="15.5" spans="2:8">
+      <c r="B31" s="14"/>
       <c r="D31" s="12">
-        <v>10027</v>
-      </c>
-      <c r="E31">
-        <v>111</v>
+        <v>11027</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -1644,13 +1810,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="13"/>
-      <c r="D32" s="12">
-        <v>10028</v>
-      </c>
-      <c r="E32">
-        <v>111</v>
+    <row r="32" ht="15.5" spans="2:8">
+      <c r="B32" s="14"/>
+      <c r="D32" s="11">
+        <v>11028</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -1662,13 +1828,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="13"/>
+    <row r="33" ht="15.5" spans="2:8">
+      <c r="B33" s="14"/>
       <c r="D33" s="12">
-        <v>10029</v>
-      </c>
-      <c r="E33">
-        <v>111</v>
+        <v>11029</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -1680,13 +1846,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="13"/>
-      <c r="D34" s="12">
-        <v>10030</v>
-      </c>
-      <c r="E34">
-        <v>111</v>
+    <row r="34" ht="15.5" spans="2:8">
+      <c r="B34" s="14"/>
+      <c r="D34" s="11">
+        <v>11030</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="F34" s="3">
         <v>1</v>
@@ -1698,13 +1864,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="13"/>
+    <row r="35" ht="15.5" spans="2:8">
+      <c r="B35" s="14"/>
       <c r="D35" s="12">
-        <v>10031</v>
-      </c>
-      <c r="E35">
-        <v>111</v>
+        <v>11031</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>49</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -1716,13 +1882,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="13"/>
-      <c r="D36" s="12">
-        <v>10032</v>
-      </c>
-      <c r="E36">
-        <v>111</v>
+    <row r="36" ht="15.5" spans="2:8">
+      <c r="B36" s="14"/>
+      <c r="D36" s="11">
+        <v>11032</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
@@ -1734,13 +1900,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="13"/>
+    <row r="37" ht="15.5" spans="2:8">
+      <c r="B37" s="14"/>
       <c r="D37" s="12">
-        <v>10033</v>
-      </c>
-      <c r="E37">
-        <v>111</v>
+        <v>11033</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -1752,15 +1918,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" ht="15.5" spans="2:8">
       <c r="B38" s="11">
         <v>10003</v>
       </c>
-      <c r="D38" s="12">
-        <v>10034</v>
-      </c>
-      <c r="E38">
-        <v>111</v>
+      <c r="D38" s="11">
+        <v>11034</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="F38" s="3">
         <v>1</v>
@@ -1772,13 +1938,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="13"/>
+    <row r="39" ht="15.5" spans="2:8">
+      <c r="B39" s="14"/>
       <c r="D39" s="12">
-        <v>10035</v>
-      </c>
-      <c r="E39">
-        <v>111</v>
+        <v>11035</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -1790,13 +1956,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="13"/>
-      <c r="D40" s="12">
-        <v>10036</v>
-      </c>
-      <c r="E40">
-        <v>111</v>
+    <row r="40" ht="15.5" spans="2:8">
+      <c r="B40" s="14"/>
+      <c r="D40" s="11">
+        <v>11036</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>54</v>
       </c>
       <c r="F40" s="3">
         <v>1</v>
@@ -1808,13 +1974,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="13"/>
+    <row r="41" ht="15.5" spans="2:8">
+      <c r="B41" s="14"/>
       <c r="D41" s="12">
-        <v>10037</v>
-      </c>
-      <c r="E41">
-        <v>111</v>
+        <v>11037</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="F41" s="3">
         <v>1</v>
@@ -1826,13 +1992,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="13"/>
-      <c r="D42" s="12">
-        <v>10038</v>
-      </c>
-      <c r="E42">
-        <v>111</v>
+    <row r="42" ht="15.5" spans="2:8">
+      <c r="B42" s="14"/>
+      <c r="D42" s="11">
+        <v>11038</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="F42" s="3">
         <v>1</v>
@@ -1844,13 +2010,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="13"/>
+    <row r="43" ht="15.5" spans="2:8">
+      <c r="B43" s="14"/>
       <c r="D43" s="12">
-        <v>10039</v>
-      </c>
-      <c r="E43">
-        <v>111</v>
+        <v>11039</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
@@ -1862,13 +2028,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="13"/>
-      <c r="D44" s="12">
-        <v>10040</v>
-      </c>
-      <c r="E44">
-        <v>111</v>
+    <row r="44" ht="15.5" spans="2:8">
+      <c r="B44" s="14"/>
+      <c r="D44" s="11">
+        <v>11040</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
@@ -1880,13 +2046,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="13"/>
+    <row r="45" ht="15.5" spans="2:8">
+      <c r="B45" s="14"/>
       <c r="D45" s="12">
-        <v>10041</v>
-      </c>
-      <c r="E45">
-        <v>111</v>
+        <v>11041</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
@@ -1898,13 +2064,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="13"/>
-      <c r="D46" s="12">
-        <v>10042</v>
-      </c>
-      <c r="E46">
-        <v>111</v>
+    <row r="46" ht="15.5" spans="2:8">
+      <c r="B46" s="14"/>
+      <c r="D46" s="11">
+        <v>11042</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="F46" s="3">
         <v>1</v>
@@ -1916,13 +2082,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="13"/>
+    <row r="47" ht="15.5" spans="2:8">
+      <c r="B47" s="14"/>
       <c r="D47" s="12">
-        <v>10043</v>
-      </c>
-      <c r="E47">
-        <v>111</v>
+        <v>11043</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="F47" s="3">
         <v>1</v>
@@ -1934,13 +2100,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="13"/>
-      <c r="D48" s="12">
-        <v>10044</v>
-      </c>
-      <c r="E48">
-        <v>111</v>
+    <row r="48" ht="15.5" spans="2:8">
+      <c r="B48" s="14"/>
+      <c r="D48" s="11">
+        <v>11044</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="F48" s="3">
         <v>1</v>
@@ -1952,13 +2118,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
-      <c r="B49" s="13"/>
+    <row r="49" ht="15.5" spans="2:8">
+      <c r="B49" s="14"/>
       <c r="D49" s="12">
-        <v>10045</v>
-      </c>
-      <c r="E49">
-        <v>111</v>
+        <v>11045</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>63</v>
       </c>
       <c r="F49" s="3">
         <v>1</v>
@@ -1970,13 +2136,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
-      <c r="B50" s="13"/>
-      <c r="D50" s="12">
-        <v>10046</v>
-      </c>
-      <c r="E50">
-        <v>111</v>
+    <row r="50" ht="15.5" spans="2:8">
+      <c r="B50" s="14"/>
+      <c r="D50" s="11">
+        <v>11046</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="F50" s="3">
         <v>1</v>
@@ -1988,13 +2154,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
-      <c r="B51" s="13"/>
+    <row r="51" ht="15.5" spans="2:8">
+      <c r="B51" s="14"/>
       <c r="D51" s="12">
-        <v>10047</v>
-      </c>
-      <c r="E51">
-        <v>111</v>
+        <v>11047</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
@@ -2006,13 +2172,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
-      <c r="B52" s="13"/>
-      <c r="D52" s="12">
-        <v>10048</v>
-      </c>
-      <c r="E52">
-        <v>111</v>
+    <row r="52" ht="15.5" spans="2:8">
+      <c r="B52" s="14"/>
+      <c r="D52" s="11">
+        <v>11048</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="F52" s="3">
         <v>1</v>
@@ -2024,13 +2190,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
-      <c r="B53" s="13"/>
+    <row r="53" ht="15.5" spans="2:8">
+      <c r="B53" s="14"/>
       <c r="D53" s="12">
-        <v>10049</v>
-      </c>
-      <c r="E53">
-        <v>111</v>
+        <v>11049</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
@@ -2042,13 +2208,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
-      <c r="B54" s="13"/>
-      <c r="D54" s="12">
-        <v>10050</v>
-      </c>
-      <c r="E54">
-        <v>111</v>
+    <row r="54" ht="15.5" spans="2:8">
+      <c r="B54" s="14"/>
+      <c r="D54" s="11">
+        <v>11050</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="F54" s="3">
         <v>1</v>
@@ -2060,13 +2226,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
-      <c r="B55" s="13"/>
+    <row r="55" ht="15.5" spans="2:8">
+      <c r="B55" s="14"/>
       <c r="D55" s="12">
-        <v>10051</v>
-      </c>
-      <c r="E55">
-        <v>111</v>
+        <v>11051</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>69</v>
       </c>
       <c r="F55" s="3">
         <v>1</v>
@@ -2078,13 +2244,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
-      <c r="B56" s="13"/>
-      <c r="D56" s="12">
-        <v>10052</v>
-      </c>
-      <c r="E56">
-        <v>111</v>
+    <row r="56" ht="15.5" spans="2:8">
+      <c r="B56" s="14"/>
+      <c r="D56" s="11">
+        <v>11052</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="F56" s="3">
         <v>1</v>
@@ -2096,17 +2262,301 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:4">
+    <row r="57" ht="15.5" spans="4:5">
       <c r="D57" s="12"/>
-    </row>
-    <row r="58" spans="4:4">
-      <c r="D58" s="12"/>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" ht="15.5" spans="4:5">
+      <c r="D58" s="11"/>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" ht="15.5" spans="4:5">
+      <c r="D59" s="12"/>
+      <c r="E59" s="13"/>
+    </row>
+    <row r="60" ht="15.5" spans="4:5">
+      <c r="D60" s="11"/>
+      <c r="E60" s="13"/>
+    </row>
+    <row r="61" ht="15.5" spans="4:5">
+      <c r="D61" s="12"/>
+      <c r="E61" s="13"/>
+    </row>
+    <row r="62" ht="15.5" spans="4:5">
+      <c r="D62" s="11"/>
+      <c r="E62" s="13"/>
+    </row>
+    <row r="63" ht="15.5" spans="4:5">
+      <c r="D63" s="12"/>
+      <c r="E63" s="13"/>
+    </row>
+    <row r="64" ht="15.5" spans="4:5">
+      <c r="D64" s="11"/>
+      <c r="E64" s="13"/>
+    </row>
+    <row r="65" ht="15.5" spans="4:5">
+      <c r="D65" s="12"/>
+      <c r="E65" s="13"/>
+    </row>
+    <row r="66" ht="15.5" spans="4:5">
+      <c r="D66" s="11"/>
+      <c r="E66" s="13"/>
+    </row>
+    <row r="67" ht="15.5" spans="4:5">
+      <c r="D67" s="12"/>
+      <c r="E67" s="13"/>
+    </row>
+    <row r="68" ht="15.5" spans="4:5">
+      <c r="D68" s="11"/>
+      <c r="E68" s="13"/>
+    </row>
+    <row r="69" ht="15.5" spans="4:5">
+      <c r="D69" s="12"/>
+      <c r="E69" s="13"/>
+    </row>
+    <row r="70" ht="15.5" spans="4:5">
+      <c r="D70" s="11"/>
+      <c r="E70" s="13"/>
+    </row>
+    <row r="71" ht="15.5" spans="4:5">
+      <c r="D71" s="12"/>
+      <c r="E71" s="13"/>
+    </row>
+    <row r="72" ht="15.5" spans="4:5">
+      <c r="D72" s="11"/>
+      <c r="E72" s="13"/>
+    </row>
+    <row r="73" ht="15.5" spans="4:5">
+      <c r="D73" s="12"/>
+      <c r="E73" s="13"/>
+    </row>
+    <row r="74" ht="15.5" spans="4:5">
+      <c r="D74" s="11"/>
+      <c r="E74" s="13"/>
+    </row>
+    <row r="75" ht="15.5" spans="4:5">
+      <c r="D75" s="12"/>
+      <c r="E75" s="13"/>
+    </row>
+    <row r="76" ht="15.5" spans="4:5">
+      <c r="D76" s="11"/>
+      <c r="E76" s="13"/>
+    </row>
+    <row r="77" ht="15.5" spans="4:5">
+      <c r="D77" s="12"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" ht="15.5" spans="4:5">
+      <c r="D78" s="11"/>
+      <c r="E78" s="13"/>
+    </row>
+    <row r="79" ht="15.5" spans="4:5">
+      <c r="D79" s="12"/>
+      <c r="E79" s="13"/>
+    </row>
+    <row r="80" ht="15.5" spans="4:5">
+      <c r="D80" s="11"/>
+      <c r="E80" s="13"/>
+    </row>
+    <row r="81" ht="15.5" spans="4:5">
+      <c r="D81" s="12"/>
+      <c r="E81" s="13"/>
+    </row>
+    <row r="82" ht="15.5" spans="4:5">
+      <c r="D82" s="11"/>
+      <c r="E82" s="13"/>
+    </row>
+    <row r="83" ht="15.5" spans="4:5">
+      <c r="D83" s="12"/>
+      <c r="E83" s="13"/>
+    </row>
+    <row r="84" ht="15.5" spans="4:5">
+      <c r="D84" s="11"/>
+      <c r="E84" s="13"/>
+    </row>
+    <row r="85" ht="15.5" spans="4:5">
+      <c r="D85" s="12"/>
+      <c r="E85" s="13"/>
+    </row>
+    <row r="86" ht="15.5" spans="4:5">
+      <c r="D86" s="11"/>
+      <c r="E86" s="13"/>
+    </row>
+    <row r="87" ht="15.5" spans="4:5">
+      <c r="D87" s="12"/>
+      <c r="E87" s="13"/>
+    </row>
+    <row r="88" ht="15.5" spans="4:5">
+      <c r="D88" s="11"/>
+      <c r="E88" s="13"/>
+    </row>
+    <row r="89" ht="15.5" spans="4:5">
+      <c r="D89" s="12"/>
+      <c r="E89" s="13"/>
+    </row>
+    <row r="90" ht="15.5" spans="4:5">
+      <c r="D90" s="11"/>
+      <c r="E90" s="13"/>
+    </row>
+    <row r="91" ht="15.5" spans="4:5">
+      <c r="D91" s="12"/>
+      <c r="E91" s="13"/>
+    </row>
+    <row r="92" ht="15.5" spans="4:5">
+      <c r="D92" s="11"/>
+      <c r="E92" s="13"/>
+    </row>
+    <row r="93" ht="15.5" spans="4:5">
+      <c r="D93" s="12"/>
+      <c r="E93" s="13"/>
+    </row>
+    <row r="94" ht="15.5" spans="4:5">
+      <c r="D94" s="11"/>
+      <c r="E94" s="13"/>
+    </row>
+    <row r="95" ht="15.5" spans="4:5">
+      <c r="D95" s="12"/>
+      <c r="E95" s="13"/>
+    </row>
+    <row r="96" ht="15.5" spans="4:5">
+      <c r="D96" s="11"/>
+      <c r="E96" s="13"/>
+    </row>
+    <row r="97" ht="15.5" spans="4:5">
+      <c r="D97" s="12"/>
+      <c r="E97" s="13"/>
+    </row>
+    <row r="98" ht="15.5" spans="4:5">
+      <c r="D98" s="11"/>
+      <c r="E98" s="13"/>
+    </row>
+    <row r="99" ht="15.5" spans="4:5">
+      <c r="D99" s="12"/>
+      <c r="E99" s="13"/>
+    </row>
+    <row r="100" ht="15.5" spans="4:5">
+      <c r="D100" s="11"/>
+      <c r="E100" s="13"/>
+    </row>
+    <row r="101" ht="15.5" spans="4:5">
+      <c r="D101" s="12"/>
+      <c r="E101" s="13"/>
+    </row>
+    <row r="102" ht="15.5" spans="4:5">
+      <c r="D102" s="11"/>
+      <c r="E102" s="13"/>
+    </row>
+    <row r="103" ht="15.5" spans="4:5">
+      <c r="D103" s="12"/>
+      <c r="E103" s="13"/>
+    </row>
+    <row r="104" ht="15.5" spans="4:5">
+      <c r="D104" s="11"/>
+      <c r="E104" s="13"/>
+    </row>
+    <row r="105" ht="15.5" spans="4:5">
+      <c r="D105" s="12"/>
+      <c r="E105" s="13"/>
+    </row>
+    <row r="106" ht="15.5" spans="4:5">
+      <c r="D106" s="11"/>
+      <c r="E106" s="13"/>
+    </row>
+    <row r="107" ht="15.5" spans="4:5">
+      <c r="D107" s="12"/>
+      <c r="E107" s="13"/>
+    </row>
+    <row r="108" ht="15.5" spans="4:5">
+      <c r="D108" s="11"/>
+      <c r="E108" s="13"/>
+    </row>
+    <row r="109" ht="15.5" spans="4:5">
+      <c r="D109" s="12"/>
+      <c r="E109" s="13"/>
+    </row>
+    <row r="110" ht="15.5" spans="4:5">
+      <c r="D110" s="11"/>
+      <c r="E110" s="13"/>
+    </row>
+    <row r="111" ht="15.5" spans="4:5">
+      <c r="D111" s="12"/>
+      <c r="E111" s="13"/>
+    </row>
+    <row r="112" ht="15.5" spans="4:5">
+      <c r="D112" s="11"/>
+      <c r="E112" s="13"/>
+    </row>
+    <row r="113" ht="15.5" spans="4:5">
+      <c r="D113" s="12"/>
+      <c r="E113" s="13"/>
+    </row>
+    <row r="114" ht="15.5" spans="4:5">
+      <c r="D114" s="11"/>
+      <c r="E114" s="13"/>
+    </row>
+    <row r="115" ht="15.5" spans="4:5">
+      <c r="D115" s="12"/>
+      <c r="E115" s="13"/>
+    </row>
+    <row r="116" ht="15.5" spans="4:5">
+      <c r="D116" s="11"/>
+      <c r="E116" s="13"/>
+    </row>
+    <row r="117" ht="15.5" spans="4:5">
+      <c r="D117" s="12"/>
+      <c r="E117" s="13"/>
+    </row>
+    <row r="118" ht="15.5" spans="4:5">
+      <c r="D118" s="11"/>
+      <c r="E118" s="13"/>
+    </row>
+    <row r="119" ht="15.5" spans="4:5">
+      <c r="D119" s="12"/>
+      <c r="E119" s="13"/>
+    </row>
+    <row r="120" ht="15.5" spans="4:5">
+      <c r="D120" s="11"/>
+      <c r="E120" s="13"/>
+    </row>
+    <row r="121" ht="15.5" spans="4:5">
+      <c r="D121" s="12"/>
+      <c r="E121" s="13"/>
+    </row>
+    <row r="122" ht="15.5" spans="4:5">
+      <c r="D122" s="11"/>
+      <c r="E122" s="13"/>
+    </row>
+    <row r="123" ht="15.5" spans="4:5">
+      <c r="D123" s="12"/>
+      <c r="E123" s="13"/>
+    </row>
+    <row r="124" ht="15.5" spans="4:5">
+      <c r="D124" s="11"/>
+      <c r="E124" s="13"/>
+    </row>
+    <row r="125" ht="15.5" spans="4:5">
+      <c r="D125" s="12"/>
+      <c r="E125" s="13"/>
+    </row>
+    <row r="126" ht="15.5" spans="4:5">
+      <c r="D126" s="11"/>
+      <c r="E126" s="13"/>
+    </row>
+    <row r="127" ht="15.5" spans="4:5">
+      <c r="D127" s="12"/>
+      <c r="E127" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D3:H3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E26" r:id="rId1" display="邪影芳灵经验" tooltip="http://www.baidu.com/link?url=l12dmBg3NEtasdYj_1eirbwFNLBePPbwIYwDp3ReKv__8V24U20rZWzU4HgghwRg0UjfDf_XvTl5hIaoArvShq"/>
+    <hyperlink ref="E27" r:id="rId2" display="破晓辰星经验" tooltip="http://www.baidu.com/link?url=vaEqnYVBkmW6puGC7wnDVm08jlaH8cZ0B0okAfCm3f4XGYFiPcPlIHddQhqbW8F7ar9ZAGjbHTqIbVyCYfXsla"/>
+    <hyperlink ref="E33" r:id="rId3" display="卓尔游侠经验" tooltip="http://www.baidu.com/link?url=I22yPUlo-PKmBww8jRjXkG7HTxJD8EvR23L-N1kCMPaMHpCMpAtBvl-YTUIygF1108oyABEEAVe71ELg6bnM0a"/>
+    <hyperlink ref="E42" r:id="rId4" display="天涯墨客经验" tooltip="http://www.baidu.com/link?url=oeNNFnvdtAHgdInZKgObdPaENoGBCwSK2V4TuIk3cKPDAWLqWSJr00h_y7KK8UwVjGM5GQemOWGiMBvxG4UaOq"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Doc/ExcelConfig/Datas/道具/ItemPrizePoolConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/道具/ItemPrizePoolConfig.xlsx
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
